--- a/templates/AutomationOrg/LocAdjustment.xlsx
+++ b/templates/AutomationOrg/LocAdjustment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E7B61-A0A4-43F7-B2E5-3252A3242D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2CA0D-609F-4ECE-BB69-585F16A8E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,9 +647,7 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
-        <v>44292</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -674,9 +672,7 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>44292</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="K6" t="s">
         <v>21</v>
       </c>
